--- a/Testshixun/data/user5.xlsx
+++ b/Testshixun/data/user5.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="31">
   <si>
     <t>amount</t>
   </si>
@@ -44,6 +44,9 @@
     <t>652978478@qq.com</t>
   </si>
   <si>
+    <t>a652978478</t>
+  </si>
+  <si>
     <t>aaa</t>
   </si>
   <si>
@@ -90,6 +93,21 @@
   </si>
   <si>
     <t>#$%123</t>
+  </si>
+  <si>
+    <t>ying</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>yy</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>abc.com</t>
   </si>
 </sst>
 </file>
@@ -97,8 +115,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -112,6 +130,49 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -128,107 +189,40 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -241,6 +235,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -248,8 +250,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,13 +282,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,19 +432,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,145 +456,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,6 +473,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -482,32 +524,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,20 +559,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,10 +579,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -573,133 +591,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1026,13 +1044,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="10" max="10" width="17" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -1138,8 +1159,8 @@
       <c r="I3" t="s">
         <v>4</v>
       </c>
-      <c r="J3">
-        <v>652978478</v>
+      <c r="J3" t="s">
+        <v>9</v>
       </c>
       <c r="K3" t="s">
         <v>5</v>
@@ -1165,19 +1186,19 @@
         <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
         <v>3</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I4" t="s">
         <v>4</v>
       </c>
       <c r="J4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" t="s">
         <v>5</v>
@@ -1203,19 +1224,19 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I5" t="s">
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K5" t="s">
         <v>5</v>
@@ -1241,7 +1262,7 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
         <v>3</v>
@@ -1253,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K6" t="s">
         <v>5</v>
@@ -1279,19 +1300,19 @@
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
         <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s">
         <v>4</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K7" t="s">
         <v>5</v>
@@ -1317,13 +1338,13 @@
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I8" t="s">
         <v>4</v>
@@ -1355,19 +1376,19 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I9" t="s">
         <v>4</v>
       </c>
       <c r="J9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K9" t="s">
         <v>5</v>
@@ -1399,19 +1420,95 @@
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I10" t="s">
         <v>4</v>
       </c>
       <c r="J10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K10" t="s">
         <v>5</v>
       </c>
       <c r="L10">
         <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
